--- a/datos1.xlsx
+++ b/datos1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb3023e587ec0f39/Escritorio/ModelosMultiescala/ModelosMultiescala/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{610F7FEC-2DDF-47A8-924C-ADAE36490959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{610F7FEC-2DDF-47A8-924C-ADAE36490959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668258EC-738A-4081-A4C6-71180CC21AC9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00311BF1-61C7-4C92-A7FB-88E703481C05}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{00311BF1-61C7-4C92-A7FB-88E703481C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1635760-77F1-4BBB-9BE2-DAFC6E598F2D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -431,34 +431,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>28</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
